--- a/medicine/Enfance/Les_Enfants_sur_la_place_publique/Les_Enfants_sur_la_place_publique.xlsx
+++ b/medicine/Enfance/Les_Enfants_sur_la_place_publique/Les_Enfants_sur_la_place_publique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants sur la place publique, ou encore les Enfants qui jouent de la flûte, est une image employée par Jésus-Christ pour illustrer le thème de la sagesse. Relatée dans les Évangiles selon Matthieu (Mt 11:16-19) et selon Luc (Lc 7:31-35), cette  comparaison relève plus de l'analogie que de la parabole. Elle met en opposition l'attitude conciliante de Jésus Christ et l'ascétisme de Jean le Baptiste
 </t>
@@ -511,7 +523,9 @@
           <t>Texte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Évangile selon saint-Luc, chapitre 7, versets 31 à 35 :
 « À qui donc comparerai-je les hommes de cette génération, et à qui ressemblent-ils ? Ils ressemblent aux enfants assis dans la place publique, et qui, se parlant les uns aux autres, disent : Nous vous avons joué de la flûte, et vous n'avez pas dansé ; nous vous avons chanté des complaintes, et vous n'avez pas pleuré. Car Jean Baptiste est venu, ne mangeant pas de pain et ne buvant pas de vin, et vous dites : Il a un démon. Le Fils de l'homme est venu, mangeant et buvant, et vous dites : C'est un mangeur et un buveur, un ami des publicains et des gens de mauvaise vie. Mais la sagesse a été justifiée par tous ses enfants. »
